--- a/TBES控制制逻辑及版本管理_汇总.xlsx
+++ b/TBES控制制逻辑及版本管理_汇总.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitWorkSpace\TBES_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\GitWorkSpace\TBES_2022_Battery\TBES_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9B0190-7F5D-445F-9B7C-1D224B1278D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FA179C-A5F1-4FA4-A002-CB36EED2732A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="电机T形图控制" sheetId="1" r:id="rId1"/>
-    <sheet name="版本管理" sheetId="3" r:id="rId2"/>
-    <sheet name="控制逻辑0527" sheetId="2" r:id="rId3"/>
+    <sheet name="电路注意事项" sheetId="9" r:id="rId1"/>
+    <sheet name="STM32F303RCT6-TBES-PIN-MAP" sheetId="8" r:id="rId2"/>
+    <sheet name="1.主控差异" sheetId="4" r:id="rId3"/>
+    <sheet name="2.USB方案" sheetId="6" r:id="rId4"/>
+    <sheet name="3.元器件选型" sheetId="7" r:id="rId5"/>
+    <sheet name="电机T形图控制" sheetId="1" r:id="rId6"/>
+    <sheet name="版本管理" sheetId="3" r:id="rId7"/>
+    <sheet name="控制逻辑0527" sheetId="2" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'STM32F303RCT6-TBES-PIN-MAP'!$A$1:$R$65</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="391">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +347,1228 @@
   </si>
   <si>
     <t>x=0.13t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VBAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU_3V3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC_IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSC_OUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NRST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pull up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VREF-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU_GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_RUN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个芯片电源处添加：磁珠，滤波电容（22uf和100pf）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加LED指示灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZGM0_RST</t>
+  </si>
+  <si>
+    <t>电平转换上拉电阻不要超过4.7k，最好两侧都上拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_TX_ZGM0_RX</t>
+  </si>
+  <si>
+    <t>接触保护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码：123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_RX_ZGM0_TX</t>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_Motor_En</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>STM32_Motor_Dir</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>TIM1_ CH2N</t>
+  </si>
+  <si>
+    <t>AF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_Motor_Pwm</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>STM32_Dcf_Ctrl</t>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO-I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_POS_2</t>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_POS_3</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>STM32_POS_1</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>STM32_KEY_1</t>
+  </si>
+  <si>
+    <t>PA8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_KEY_2</t>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_KEY_3</t>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_KEY_4</t>
+  </si>
+  <si>
+    <t>PA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HX711_CLK</t>
+  </si>
+  <si>
+    <t>PA12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_HX711_DATA</t>
+  </si>
+  <si>
+    <t>PA13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>pull down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_TX_SMQ_RX</t>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_RX_SMQ_TX</t>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_TX_SDWe_RX</t>
+  </si>
+  <si>
+    <t>PB4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA1_CH6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_RX_SDWe_TX</t>
+  </si>
+  <si>
+    <t>PB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_I2C1_WP</t>
+  </si>
+  <si>
+    <t>BOOT0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOT0:0-flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AF4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_I2C1_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STM32_I2C1_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VSS_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_DM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OTG_FS_DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bbs.21ic.com/icview-2546930-1-3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/whble/article/details/78225095</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉立创单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖资源及数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期/速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机/热合阀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLP2168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东芝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V ,输入/出25mA,2通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C99480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IO输入输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA9535PW,118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C255606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCA9539PWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址A2替换成了RESET，默认A2=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C131972</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟量分路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟量采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4052BPWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSSOP-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2通道-4选1-带INH-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6522</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁珠、安规电容、钳位二极管、运放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC-DC接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMEG045V100EPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-1289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nexperia(安世)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C552777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT-DC接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMEG3050EP,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防反接：30v；最大电流5A；压降：318~360mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C50603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P-MOS管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给BAT充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP20P30Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN(3x3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALLPOWER(铨力)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P沟道 30V 20A  10.5mΩ@10V,10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2837278</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-MOS管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP050N03Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFN(3.3x3.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N沟道 30V 65A  6mΩ@10V,20A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C471915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBW322513U121T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FH(风华)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120Ω@100MHz ±25%  100mΩ 3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C394511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源芯片电源接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯片电源接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLM18KG121JH1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C560047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120Ω@100MHz ±25%  30mΩ 1.9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>muRata(村田)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正 Vin=15V Vout=3.3V 800mA 75dB@(120Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C35879</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST(意法半导体)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LD1117S33CTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源：3.3v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDO线性电源芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C182078</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMR14030SDDAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSOIC-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源：5v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关电源芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40uA IQ 的 SIMPLE SWITCHER®、40V、3.5A 2.2MHz 降压转换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电平转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74LVC2G07DBVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C37708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓冲器/驱动器  开漏 电压 - 电源：1.65 V ~ 5.5 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onsemi(安森美)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V 200mA 800mV@100mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-323</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT54HT1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电平转换，低电平有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45V 10A 490mV@10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C109472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCH(南京沁恒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQFP-48_7x7x05P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH9350L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫码枪识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transceiver 协议类别：USB 2.0 数据速率：12Mbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C43698</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS3808G33DBVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单复位/加电复位 监控的组数：1 输出端类型：开路漏极或开路集电极 有效的复位电平：低有效 复位阀值电压：3.07V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MICROCHIP(美国微芯)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT24C128C-SSHM-T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-8_150mil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储器类型：EEPROM，存储容量：128K（16K x 8），速度：400kHz，1MHz，接口：I2C，2 线串口，电压 - 电源：1.7 V~ 5.5 V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C188205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8MHz ±10ppm 20pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YXC(扬兴科技)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-49S-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X49SD8MSB2SI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振直插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振贴片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C648987</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7B008000R01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD3225-4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C72041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-217/BHC-ZL1M2RY/3T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVERLIGHT(亿光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试电流：5mA 正向电压(VF)：3.1V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C72037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20mA 正向电压(VF)：2V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-21SURC/S530-A3/TR8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序运行灯：蓝色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源指示灯：红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C311481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度：±20% 额定电流：4.5A 直流电阻(DCR)：67mΩ 车规级电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coilank(驰兴电感)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APS07A30M100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率电感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源滤波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C353363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">瞬态抑制二极管(TVS) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMBJ36CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶导微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双向 反向截止电压(Vrwm)：36V 击穿电压(最小值)：40V 击穿电压(最大值)：44.2V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C64882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流反向耐压(Vr)：40V 平均整流电流(Io)：5A 正向压降(Vf)：550mV@5A 40V,5A,VF=0.55V@5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关电源续流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22633</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CJ(江苏长电/长晶)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAT43WS S8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V 200mA 450mV@15mA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">双向 Vrwm:5V 双向 反向截止电压(Vrwm)：5V 击穿电压(最小值)：5.5V </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PESD5V0S1BA,115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS54F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMAF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24v电源接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3v信号接入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>’1210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN 45V 100mA </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC847B,215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOT-23(SOT-23-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C57668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三极管：NPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池充电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +1579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +1654,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,8 +1688,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -494,12 +1744,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -519,6 +1791,33 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -559,6 +1858,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,6 +1884,329 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189701</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC198C8F-B93C-4A12-94E5-9BFB9C091308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="1076325"/>
+          <a:ext cx="4943475" cy="4142576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>351451</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>37886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{607A3F3D-8AF5-4D00-AC6B-B66BD2A1922A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077075" y="16764000"/>
+          <a:ext cx="7790476" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>569214</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C39AFA-0330-E994-37FC-00491FC76D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="419100"/>
+          <a:ext cx="18285714" cy="9819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408657</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2056803D-CB44-E857-9E8B-CA0EFE3E522A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7342857" cy="5533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>399333</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B82C2B6-D9AF-1766-DEBE-8464A91CFDBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="419100"/>
+          <a:ext cx="5733333" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>417981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>103924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A06818-3D40-4FD8-5C93-E6F3C6044D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="5867400"/>
+          <a:ext cx="8952381" cy="6809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>475124</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1D7AEA-BA92-4E65-E7C9-41FC57E52946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="5867400"/>
+          <a:ext cx="9009524" cy="6847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -752,7 +2381,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1239,10 +2868,2350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A593D1BE-DDA9-4F54-A3A8-771397F96575}">
+  <dimension ref="B2:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="40"/>
+      <c r="C4" s="16">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A9BBFAA-63E3-4C27-9300-15B8CA7870D2}">
+  <dimension ref="A1:R65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="13"/>
+    <col min="9" max="9" width="2.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="16">
+        <v>2</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="16">
+        <v>3</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="14">
+        <v>59</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="14">
+        <v>60</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="14">
+        <v>61</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="14">
+        <v>62</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="14">
+        <v>63</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="14">
+        <v>64</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R65" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="5">
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="J24:R24"/>
+    <mergeCell ref="J25:R25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5140F964-B0B4-4809-A4BF-EE9A52B2DC2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="33" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="7.5" style="7"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DB1788-8261-4F63-A639-4B266EC25248}">
+  <dimension ref="Q1:Q7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="33" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="7" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q1" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="Q7" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="Q1" r:id="rId1" xr:uid="{CA399198-5659-471D-94EC-17659D52CA3C}"/>
+    <hyperlink ref="Q7" r:id="rId2" xr:uid="{4FB8909E-1564-4883-9372-1606077CC6DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE91B5FD-78B4-4EF1-AB2C-563E4D50F1BC}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.75" customWidth="1"/>
+    <col min="8" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J2" s="20">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="J4" s="20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8">
+        <v>0.84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I9" t="s">
+        <v>267</v>
+      </c>
+      <c r="J9">
+        <v>0.85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10">
+        <v>4.67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11">
+        <v>2.27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>369</v>
+      </c>
+      <c r="D12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12">
+        <v>0.35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J13">
+        <v>0.17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J14">
+        <v>0.34</v>
+      </c>
+      <c r="K14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" t="s">
+        <v>376</v>
+      </c>
+      <c r="E16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="J16">
+        <v>0.3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+      <c r="E17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" t="s">
+        <v>272</v>
+      </c>
+      <c r="I17" t="s">
+        <v>273</v>
+      </c>
+      <c r="J17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" t="s">
+        <v>273</v>
+      </c>
+      <c r="J18">
+        <v>0.23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J19">
+        <v>1.36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20">
+        <v>13.8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="J22">
+        <v>24.2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="J23">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="J24">
+        <v>1.7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" t="s">
+        <v>340</v>
+      </c>
+      <c r="F26" t="s">
+        <v>340</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J26">
+        <v>1.4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" t="s">
+        <v>346</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E28" t="s">
+        <v>345</v>
+      </c>
+      <c r="F28" t="s">
+        <v>346</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" t="s">
+        <v>358</v>
+      </c>
+      <c r="E29" t="s">
+        <v>357</v>
+      </c>
+      <c r="F29" t="s">
+        <v>356</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="J29">
+        <v>1.18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>388</v>
+      </c>
+      <c r="C30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" t="s">
+        <v>384</v>
+      </c>
+      <c r="E30" t="s">
+        <v>385</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J30">
+        <v>0.11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{D28374EE-A26E-43BE-8AD0-39F674256598}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S78" sqref="S78"/>
     </sheetView>
   </sheetViews>
@@ -1418,18 +5387,18 @@
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="14" t="s">
+      <c r="AD9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
       <c r="BS9">
         <v>8</v>
       </c>
@@ -1447,16 +5416,16 @@
         <f>A8/360*A6</f>
         <v>3823.3611111111109</v>
       </c>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
       <c r="BS10">
         <v>9</v>
       </c>
@@ -1470,16 +5439,16 @@
       </c>
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
       <c r="BS11">
         <v>10</v>
       </c>
@@ -1493,16 +5462,16 @@
       </c>
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
       <c r="BS12">
         <v>11</v>
       </c>
@@ -1516,16 +5485,16 @@
       </c>
     </row>
     <row r="13" spans="1:73" x14ac:dyDescent="0.2">
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
       <c r="BS13">
         <v>12</v>
       </c>
@@ -1542,19 +5511,19 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD14" s="28">
         <f>A10</f>
         <v>3823.3611111111109</v>
       </c>
-      <c r="AE14" s="15"/>
-      <c r="AF14" s="15"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="15"/>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="15"/>
-      <c r="AM14" s="15"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
       <c r="BS14">
         <v>13</v>
       </c>
@@ -1646,13 +5615,13 @@
       <c r="BH18" t="s">
         <v>9</v>
       </c>
-      <c r="BI18" s="16" t="e">
+      <c r="BI18" s="29" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ18" s="16"/>
-      <c r="BK18" s="16"/>
-      <c r="BL18" s="16"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
       <c r="BS18">
         <v>17</v>
       </c>
@@ -1709,63 +5678,63 @@
         <f>A19/A23</f>
         <v>173.9307328484972</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13">
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26">
         <v>2000</v>
       </c>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="AB21" s="12" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="AB21" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="13">
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="26">
         <v>0.33</v>
       </c>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AS21" s="12" t="s">
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="26"/>
+      <c r="AJ21" s="26"/>
+      <c r="AK21" s="26"/>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="26"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="26"/>
+      <c r="AS21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="13">
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="26">
         <v>0.66</v>
       </c>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
-      <c r="BF21" s="13"/>
-      <c r="BG21" s="13"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="26"/>
+      <c r="BA21" s="26"/>
+      <c r="BB21" s="26"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="26"/>
+      <c r="BE21" s="26"/>
+      <c r="BF21" s="26"/>
+      <c r="BG21" s="26"/>
       <c r="BS21">
         <v>20</v>
       </c>
@@ -1782,51 +5751,51 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
-      <c r="BF22" s="13"/>
-      <c r="BG22" s="13"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="26"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="26"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="26"/>
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="26"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="26"/>
+      <c r="BA22" s="26"/>
+      <c r="BB22" s="26"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="26"/>
+      <c r="BE22" s="26"/>
+      <c r="BF22" s="26"/>
+      <c r="BG22" s="26"/>
       <c r="BS22">
         <v>21</v>
       </c>
@@ -1844,61 +5813,61 @@
         <f>$A25*2</f>
         <v>5749.415204678362</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="AB23" s="12" t="s">
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="AB23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="13">
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="26">
         <f>P21*AG21</f>
         <v>660</v>
       </c>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AS23" s="12" t="s">
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AS23" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="13">
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="26">
         <f>P21*AX21</f>
         <v>1320</v>
       </c>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
+      <c r="AY23" s="26"/>
+      <c r="AZ23" s="26"/>
+      <c r="BA23" s="26"/>
+      <c r="BB23" s="26"/>
+      <c r="BC23" s="26"/>
+      <c r="BD23" s="26"/>
+      <c r="BE23" s="26"/>
+      <c r="BF23" s="26"/>
+      <c r="BG23" s="26"/>
       <c r="BS23">
         <v>22</v>
       </c>
@@ -1915,51 +5884,51 @@
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="26"/>
+      <c r="AO24" s="26"/>
+      <c r="AP24" s="26"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="26"/>
+      <c r="AY24" s="26"/>
+      <c r="AZ24" s="26"/>
+      <c r="BA24" s="26"/>
+      <c r="BB24" s="26"/>
+      <c r="BC24" s="26"/>
+      <c r="BD24" s="26"/>
+      <c r="BE24" s="26"/>
+      <c r="BF24" s="26"/>
+      <c r="BG24" s="26"/>
       <c r="BS24">
         <v>23</v>
       </c>
@@ -1977,66 +5946,66 @@
         <f>Z33*1000</f>
         <v>2874.707602339181</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19">
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32">
         <f>A10</f>
         <v>3823.3611111111109</v>
       </c>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="AB25" s="12" t="s">
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="AB25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="13">
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="26">
         <f>Z33/AG23</f>
         <v>4.3556175793017897E-3</v>
       </c>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AS25" s="12" t="s">
+      <c r="AH25" s="26"/>
+      <c r="AI25" s="26"/>
+      <c r="AJ25" s="26"/>
+      <c r="AK25" s="26"/>
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="26"/>
+      <c r="AO25" s="26"/>
+      <c r="AP25" s="26"/>
+      <c r="AS25" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="12"/>
-      <c r="AX25" s="13">
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="26">
         <f>(0-Z33)/(P21-AX23)</f>
         <v>-4.2275111799105602E-3</v>
       </c>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
+      <c r="AY25" s="26"/>
+      <c r="AZ25" s="26"/>
+      <c r="BA25" s="26"/>
+      <c r="BB25" s="26"/>
+      <c r="BC25" s="26"/>
+      <c r="BD25" s="26"/>
+      <c r="BE25" s="26"/>
+      <c r="BF25" s="26"/>
+      <c r="BG25" s="26"/>
       <c r="BS25">
         <v>24</v>
       </c>
@@ -2050,51 +6019,51 @@
       </c>
     </row>
     <row r="26" spans="1:73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
-      <c r="BE26" s="13"/>
-      <c r="BF26" s="13"/>
-      <c r="BG26" s="13"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="26"/>
+      <c r="AH26" s="26"/>
+      <c r="AI26" s="26"/>
+      <c r="AJ26" s="26"/>
+      <c r="AK26" s="26"/>
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="26"/>
+      <c r="AO26" s="26"/>
+      <c r="AP26" s="26"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="26"/>
+      <c r="AY26" s="26"/>
+      <c r="AZ26" s="26"/>
+      <c r="BA26" s="26"/>
+      <c r="BB26" s="26"/>
+      <c r="BC26" s="26"/>
+      <c r="BD26" s="26"/>
+      <c r="BE26" s="26"/>
+      <c r="BF26" s="26"/>
+      <c r="BG26" s="26"/>
       <c r="BS26">
         <v>25</v>
       </c>
@@ -2108,61 +6077,61 @@
       </c>
     </row>
     <row r="27" spans="1:73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="20"/>
-      <c r="Y27" s="20"/>
-      <c r="AB27" s="12" t="s">
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="AB27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="13">
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="26">
         <f>P25*AG25</f>
         <v>0</v>
       </c>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AS27" s="12" t="s">
+      <c r="AH27" s="26"/>
+      <c r="AI27" s="26"/>
+      <c r="AJ27" s="26"/>
+      <c r="AK27" s="26"/>
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="26"/>
+      <c r="AO27" s="26"/>
+      <c r="AP27" s="26"/>
+      <c r="AS27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AT27" s="12"/>
-      <c r="AU27" s="12"/>
-      <c r="AV27" s="12"/>
-      <c r="AW27" s="12"/>
-      <c r="AX27" s="13">
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="26">
         <f>-AX25*P21</f>
         <v>8.45502235982112</v>
       </c>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
       <c r="BS27">
         <v>26</v>
       </c>
@@ -2183,51 +6152,51 @@
         <f>1000000/(D28*$AG$25*1000)</f>
         <v>229588.56736001631</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="13"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="13"/>
-      <c r="BD28" s="13"/>
-      <c r="BE28" s="13"/>
-      <c r="BF28" s="13"/>
-      <c r="BG28" s="13"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="26"/>
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="26"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="26"/>
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="26"/>
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="26"/>
+      <c r="BG28" s="26"/>
       <c r="BS28">
         <v>27</v>
       </c>
@@ -2248,58 +6217,58 @@
         <f t="shared" ref="E29:E81" si="2">1000000/(D29*$AG$25*1000)</f>
         <v>114794.28368000816</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="21"/>
-      <c r="AD29" s="21"/>
-      <c r="AE29" s="21"/>
-      <c r="AF29" s="21"/>
-      <c r="AG29" s="21"/>
-      <c r="AH29" s="21"/>
-      <c r="AI29" s="21"/>
-      <c r="AJ29" s="21"/>
-      <c r="AK29" s="21"/>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="21"/>
-      <c r="AO29" s="21"/>
-      <c r="AP29" s="21"/>
-      <c r="AQ29" s="21"/>
-      <c r="AR29" s="21"/>
-      <c r="AS29" s="21"/>
-      <c r="AT29" s="21"/>
-      <c r="AU29" s="21"/>
-      <c r="AV29" s="21"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="21"/>
-      <c r="AZ29" s="21"/>
-      <c r="BA29" s="21"/>
-      <c r="BB29" s="21"/>
-      <c r="BC29" s="21"/>
-      <c r="BD29" s="21"/>
-      <c r="BE29" s="21"/>
-      <c r="BF29" s="21"/>
-      <c r="BG29" s="21"/>
-      <c r="BH29" s="21"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="34"/>
+      <c r="AL29" s="34"/>
+      <c r="AM29" s="34"/>
+      <c r="AN29" s="34"/>
+      <c r="AO29" s="34"/>
+      <c r="AP29" s="34"/>
+      <c r="AQ29" s="34"/>
+      <c r="AR29" s="34"/>
+      <c r="AS29" s="34"/>
+      <c r="AT29" s="34"/>
+      <c r="AU29" s="34"/>
+      <c r="AV29" s="34"/>
+      <c r="AW29" s="34"/>
+      <c r="AX29" s="34"/>
+      <c r="AY29" s="34"/>
+      <c r="AZ29" s="34"/>
+      <c r="BA29" s="34"/>
+      <c r="BB29" s="34"/>
+      <c r="BC29" s="34"/>
+      <c r="BD29" s="34"/>
+      <c r="BE29" s="34"/>
+      <c r="BF29" s="34"/>
+      <c r="BG29" s="34"/>
+      <c r="BH29" s="34"/>
       <c r="BS29">
         <v>28</v>
       </c>
@@ -2320,56 +6289,56 @@
         <f t="shared" si="2"/>
         <v>76529.522453338752</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="21"/>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="21"/>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="21"/>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="21"/>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="34"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="34"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="34"/>
+      <c r="AM30" s="34"/>
+      <c r="AN30" s="34"/>
+      <c r="AO30" s="34"/>
+      <c r="AP30" s="34"/>
+      <c r="AQ30" s="34"/>
+      <c r="AR30" s="34"/>
+      <c r="AS30" s="34"/>
+      <c r="AT30" s="34"/>
+      <c r="AU30" s="34"/>
+      <c r="AV30" s="34"/>
+      <c r="AW30" s="34"/>
+      <c r="AX30" s="34"/>
+      <c r="AY30" s="34"/>
+      <c r="AZ30" s="34"/>
+      <c r="BA30" s="34"/>
+      <c r="BB30" s="34"/>
+      <c r="BC30" s="34"/>
+      <c r="BD30" s="34"/>
+      <c r="BE30" s="34"/>
+      <c r="BF30" s="34"/>
+      <c r="BG30" s="34"/>
+      <c r="BH30" s="34"/>
       <c r="BS30">
         <v>29</v>
       </c>
@@ -2390,56 +6359,56 @@
         <f t="shared" si="2"/>
         <v>57397.141840004078</v>
       </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="21"/>
-      <c r="AF31" s="21"/>
-      <c r="AG31" s="21"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="21"/>
-      <c r="AJ31" s="21"/>
-      <c r="AK31" s="21"/>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="21"/>
-      <c r="AO31" s="21"/>
-      <c r="AP31" s="21"/>
-      <c r="AQ31" s="21"/>
-      <c r="AR31" s="21"/>
-      <c r="AS31" s="21"/>
-      <c r="AT31" s="21"/>
-      <c r="AU31" s="21"/>
-      <c r="AV31" s="21"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="21"/>
-      <c r="AZ31" s="21"/>
-      <c r="BA31" s="21"/>
-      <c r="BB31" s="21"/>
-      <c r="BC31" s="21"/>
-      <c r="BD31" s="21"/>
-      <c r="BE31" s="21"/>
-      <c r="BF31" s="21"/>
-      <c r="BG31" s="21"/>
-      <c r="BH31" s="21"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
+      <c r="AO31" s="34"/>
+      <c r="AP31" s="34"/>
+      <c r="AQ31" s="34"/>
+      <c r="AR31" s="34"/>
+      <c r="AS31" s="34"/>
+      <c r="AT31" s="34"/>
+      <c r="AU31" s="34"/>
+      <c r="AV31" s="34"/>
+      <c r="AW31" s="34"/>
+      <c r="AX31" s="34"/>
+      <c r="AY31" s="34"/>
+      <c r="AZ31" s="34"/>
+      <c r="BA31" s="34"/>
+      <c r="BB31" s="34"/>
+      <c r="BC31" s="34"/>
+      <c r="BD31" s="34"/>
+      <c r="BE31" s="34"/>
+      <c r="BF31" s="34"/>
+      <c r="BG31" s="34"/>
+      <c r="BH31" s="34"/>
       <c r="BS31">
         <v>30</v>
       </c>
@@ -2460,56 +6429,56 @@
         <f t="shared" si="2"/>
         <v>45917.713472003255</v>
       </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="21"/>
-      <c r="AF32" s="21"/>
-      <c r="AG32" s="21"/>
-      <c r="AH32" s="21"/>
-      <c r="AI32" s="21"/>
-      <c r="AJ32" s="21"/>
-      <c r="AK32" s="21"/>
-      <c r="AL32" s="21"/>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="21"/>
-      <c r="AO32" s="21"/>
-      <c r="AP32" s="21"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
+      <c r="AD32" s="34"/>
+      <c r="AE32" s="34"/>
+      <c r="AF32" s="34"/>
+      <c r="AG32" s="34"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34"/>
+      <c r="AJ32" s="34"/>
+      <c r="AK32" s="34"/>
+      <c r="AL32" s="34"/>
+      <c r="AM32" s="34"/>
+      <c r="AN32" s="34"/>
+      <c r="AO32" s="34"/>
+      <c r="AP32" s="34"/>
+      <c r="AQ32" s="34"/>
+      <c r="AR32" s="34"/>
+      <c r="AS32" s="34"/>
+      <c r="AT32" s="34"/>
+      <c r="AU32" s="34"/>
+      <c r="AV32" s="34"/>
+      <c r="AW32" s="34"/>
+      <c r="AX32" s="34"/>
+      <c r="AY32" s="34"/>
+      <c r="AZ32" s="34"/>
+      <c r="BA32" s="34"/>
+      <c r="BB32" s="34"/>
+      <c r="BC32" s="34"/>
+      <c r="BD32" s="34"/>
+      <c r="BE32" s="34"/>
+      <c r="BF32" s="34"/>
+      <c r="BG32" s="34"/>
+      <c r="BH32" s="34"/>
       <c r="BS32">
         <v>31</v>
       </c>
@@ -2530,41 +6499,41 @@
         <f t="shared" si="2"/>
         <v>38264.761226669376</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18">
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31">
         <f>N25*2/((AX23-AG23)+P21)</f>
         <v>2.8747076023391811</v>
       </c>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="18"/>
-      <c r="AJ33" s="18"/>
-      <c r="AK33" s="18"/>
-      <c r="AL33" s="18"/>
-      <c r="AM33" s="18"/>
-      <c r="AN33" s="18"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
       <c r="BS33">
         <v>32</v>
       </c>
@@ -2585,36 +6554,36 @@
         <f t="shared" si="2"/>
         <v>32798.366765716608</v>
       </c>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="18"/>
-      <c r="X34" s="18"/>
-      <c r="Y34" s="18"/>
-      <c r="Z34" s="18"/>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="18"/>
-      <c r="AE34" s="18"/>
-      <c r="AF34" s="18"/>
-      <c r="AG34" s="18"/>
-      <c r="AH34" s="18"/>
-      <c r="AI34" s="18"/>
-      <c r="AJ34" s="18"/>
-      <c r="AK34" s="18"/>
-      <c r="AL34" s="18"/>
-      <c r="AM34" s="18"/>
-      <c r="AN34" s="18"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
       <c r="BS34">
         <v>33</v>
       </c>
@@ -2635,36 +6604,36 @@
         <f t="shared" si="2"/>
         <v>28698.570920002039</v>
       </c>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="18"/>
-      <c r="AA35" s="18"/>
-      <c r="AB35" s="18"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="18"/>
-      <c r="AE35" s="18"/>
-      <c r="AF35" s="18"/>
-      <c r="AG35" s="18"/>
-      <c r="AH35" s="18"/>
-      <c r="AI35" s="18"/>
-      <c r="AJ35" s="18"/>
-      <c r="AK35" s="18"/>
-      <c r="AL35" s="18"/>
-      <c r="AM35" s="18"/>
-      <c r="AN35" s="18"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
       <c r="BS35">
         <v>34</v>
       </c>
@@ -2685,36 +6654,36 @@
         <f t="shared" si="2"/>
         <v>25509.840817779583</v>
       </c>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="18"/>
-      <c r="X36" s="18"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="18"/>
-      <c r="AA36" s="18"/>
-      <c r="AB36" s="18"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="18"/>
-      <c r="AH36" s="18"/>
-      <c r="AI36" s="18"/>
-      <c r="AJ36" s="18"/>
-      <c r="AK36" s="18"/>
-      <c r="AL36" s="18"/>
-      <c r="AM36" s="18"/>
-      <c r="AN36" s="18"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
+      <c r="Y36" s="31"/>
+      <c r="Z36" s="31"/>
+      <c r="AA36" s="31"/>
+      <c r="AB36" s="31"/>
+      <c r="AC36" s="31"/>
+      <c r="AD36" s="31"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="31"/>
       <c r="BS36">
         <v>35</v>
       </c>
@@ -3063,15 +7032,15 @@
         <f t="shared" si="2"/>
         <v>10932.788921905536</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L48" s="30">
         <v>4</v>
       </c>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
       <c r="BS48">
         <v>47</v>
       </c>
@@ -15858,7 +19827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F69500C-A2D0-484E-AC94-A6EB26250EC9}">
   <dimension ref="B1:H4"/>
   <sheetViews>
@@ -15881,26 +19850,26 @@
   <sheetData>
     <row r="1" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="22"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="10" t="s">
         <v>64</v>
       </c>
@@ -15913,8 +19882,8 @@
       <c r="F3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="10">
@@ -15951,7 +19920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F62FE7-2EFE-4E1F-8C23-2E27C175C8D5}">
   <dimension ref="B1:L42"/>
   <sheetViews>
